--- a/Project3/test/temp.xlsx
+++ b/Project3/test/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.barreiro\Documents\GitHub\Projects_STK4155\Project3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF0BAE0-B53E-4795-86C4-4D1F12882972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDEDC6-31DF-4110-8279-790D2ED7D297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,9 +121,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91C12CFE-8F0D-4677-9D98-442738C5FAB2}" type="CELLRANGE">
+                    <a:fld id="{8FB78CF5-C2F1-41D8-97C6-60501CBD8445}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -283,7 +283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A87059-8DEE-4591-BE59-581B785FF3C2}" type="CELLRANGE">
+                    <a:fld id="{8C6D791D-BAB7-4AE2-AEF1-F8B69B4ED96B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -317,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0902F9B-30B1-40BC-9D73-7C0A1561B53C}" type="CELLRANGE">
+                    <a:fld id="{64E175E5-1D9D-4AEE-A352-3F6E15A9F18F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -351,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85E0D2C6-C31E-4008-9AD8-AFAFAB0DA14C}" type="CELLRANGE">
+                    <a:fld id="{A327FC7F-6CBF-4791-AD97-9156B30CE350}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -385,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A53E0D41-B0D6-45FB-AE18-27A06BCE4735}" type="CELLRANGE">
+                    <a:fld id="{500C869F-19AC-44D3-8520-8A9A5E545055}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -500,19 +500,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78658536999999995</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74316939999999998</c:v>
+                  <c:v>0.72916667000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71584698999999996</c:v>
+                  <c:v>0.67015707000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80952380999999995</c:v>
+                  <c:v>0.83892617000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58482142999999998</c:v>
+                  <c:v>0.60287080999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,19 +524,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.787</c:v>
+                    <c:v>0.781</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.743</c:v>
+                    <c:v>0.729</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.716</c:v>
+                    <c:v>0.670</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.810</c:v>
+                    <c:v>0.839</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.585</c:v>
+                    <c:v>0.603</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -578,7 +578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C60BA66-9F73-4B0E-AA01-CA8D8A7AD59F}" type="CELLRANGE">
+                    <a:fld id="{A92C4055-D12F-47E2-A227-9F8304690ED3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB2407F1-D4E3-44A1-B173-939136364738}" type="CELLRANGE">
+                    <a:fld id="{D4D8FB58-7F04-4945-B6DE-E2525B4D38FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98A0141D-8A7D-4CF7-8BA9-DE3B906F92AC}" type="CELLRANGE">
+                    <a:fld id="{6B9244F7-C348-432E-8766-4818F76F54C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B29A0DF-6E76-48BC-AEE2-626B26D7E7AF}" type="CELLRANGE">
+                    <a:fld id="{2A4BB54F-0892-4626-871C-56EFE42690A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0C8B316-156E-4160-97EA-BBF4B8B97D25}" type="CELLRANGE">
+                    <a:fld id="{EE12CF55-2401-4016-BEA7-C74779B6167D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -829,19 +829,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72928177000000005</c:v>
+                  <c:v>0.73224043999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73469388000000002</c:v>
+                  <c:v>0.75149701000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72011661999999999</c:v>
+                  <c:v>0.71641790999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71503958000000001</c:v>
+                  <c:v>0.74005304999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68211920999999998</c:v>
+                  <c:v>0.69400631000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,19 +853,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.729</c:v>
+                    <c:v>0.732</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.735</c:v>
+                    <c:v>0.751</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.720</c:v>
+                    <c:v>0.716</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.715</c:v>
+                    <c:v>0.740</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.682</c:v>
+                    <c:v>0.694</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1282,7 +1282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7C7400D-C8B4-4277-A68B-F9E8B512C1EB}" type="CELLRANGE">
+                    <a:fld id="{F744CC76-44E7-4D49-8E2B-E112469CC5CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1316,7 +1316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0D7EEEA-3B59-4B7F-AFDF-B2A464BA644E}" type="CELLRANGE">
+                    <a:fld id="{1198C31C-4A43-4D1E-BA5E-F0E6C59CF0F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE12545-7C79-4B4E-979B-A861650BE2B5}" type="CELLRANGE">
+                    <a:fld id="{2610109F-03BB-4A06-B9A7-6AE1E5CE6FAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1384,7 +1384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E26CBB69-8F05-4E26-B7F0-95FF68E93F6D}" type="CELLRANGE">
+                    <a:fld id="{4D6A1D5C-1AF7-4087-B335-FE3685F8C2F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48A42B9B-9204-4516-B7BA-AB37FC174ADF}" type="CELLRANGE">
+                    <a:fld id="{E555906E-7ADC-4E4E-BF32-61386002C1E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1533,19 +1533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.56828193999999999</c:v>
+                  <c:v>0.56053812000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59911893999999999</c:v>
+                  <c:v>0.62780269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57709250999999995</c:v>
+                  <c:v>0.57399102999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52422906999999996</c:v>
+                  <c:v>0.56053812000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57709250999999995</c:v>
+                  <c:v>0.56502242000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,19 +1557,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.568</c:v>
+                    <c:v>0.561</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.599</c:v>
+                    <c:v>0.628</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.577</c:v>
+                    <c:v>0.574</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.524</c:v>
+                    <c:v>0.561</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.577</c:v>
+                    <c:v>0.565</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1611,7 +1611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{719CF812-82F7-4010-A546-28631E3151D8}" type="CELLRANGE">
+                    <a:fld id="{86B62651-AD43-4226-90DB-86A777C5D2D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1645,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61F530B8-8905-4394-98BD-5C9232DB9A1A}" type="CELLRANGE">
+                    <a:fld id="{7D2CD3EE-47FB-44CA-900E-E627C5D12775}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1679,7 +1679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A99BE4A9-878F-408F-9421-FBC02233077E}" type="CELLRANGE">
+                    <a:fld id="{F19C01C1-CA28-48D8-BEFF-EA18C509627E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1713,7 +1713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DDFC014-A07F-47E9-8C67-5E4AC2635CF8}" type="CELLRANGE">
+                    <a:fld id="{953D0AB9-8D2A-4B24-A63A-64D054A669AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1747,7 +1747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35A918BE-D2CC-4065-B097-BA2DCE83CB84}" type="CELLRANGE">
+                    <a:fld id="{8219172F-A209-4592-BB29-7C6E8725A063}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1862,19 +1862,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.88294313999999996</c:v>
+                  <c:v>0.88448844999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84280935999999995</c:v>
+                  <c:v>0.82838283999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82608696000000004</c:v>
+                  <c:v>0.79207921000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90635452000000005</c:v>
+                  <c:v>0.92079208000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68896321000000005</c:v>
+                  <c:v>0.72607261000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,19 +1886,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.883</c:v>
+                    <c:v>0.884</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.843</c:v>
+                    <c:v>0.828</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.826</c:v>
+                    <c:v>0.792</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.906</c:v>
+                    <c:v>0.921</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.689</c:v>
+                    <c:v>0.726</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2395,19 +2395,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65984655000000003</c:v>
+                  <c:v>0.65274151000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66341463000000001</c:v>
+                  <c:v>0.67469880000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63902439</c:v>
+                  <c:v>0.61835748999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63636364000000001</c:v>
+                  <c:v>0.67204301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58093125999999995</c:v>
+                  <c:v>0.58333332999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,19 +2530,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.79878970999999999</c:v>
+                  <c:v>0.80119580999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78504673000000003</c:v>
+                  <c:v>0.78806907000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7694704</c:v>
+                  <c:v>0.75235110000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79941002999999999</c:v>
+                  <c:v>0.82058823999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68552413000000001</c:v>
+                  <c:v>0.70967742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4926,16 +4926,18 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.78658536999999995</v>
+        <v>0.78125</v>
       </c>
       <c r="C3">
-        <v>0.72928177000000005</v>
+        <v>0.73224043999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>0.78658536999999995</v>
+        <f>B3</f>
+        <v>0.78125</v>
       </c>
       <c r="F3" s="3">
-        <v>0.72928177000000005</v>
+        <f>C3</f>
+        <v>0.73224043999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,16 +4945,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.74316939999999998</v>
+        <v>0.72916667000000002</v>
       </c>
       <c r="C4">
-        <v>0.73469388000000002</v>
+        <v>0.75149701000000002</v>
       </c>
       <c r="E4" s="3">
-        <v>0.74316939999999998</v>
+        <f t="shared" ref="E4:F21" si="0">B4</f>
+        <v>0.72916667000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>0.73469388000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.75149701000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,16 +4964,18 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.71584698999999996</v>
+        <v>0.67015707000000002</v>
       </c>
       <c r="C5">
-        <v>0.72011661999999999</v>
+        <v>0.71641790999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>0.71584698999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.67015707000000002</v>
       </c>
       <c r="F5" s="3">
-        <v>0.72011661999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.71641790999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4977,16 +4983,18 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.80952380999999995</v>
+        <v>0.83892617000000003</v>
       </c>
       <c r="C6">
-        <v>0.71503958000000001</v>
+        <v>0.74005304999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>0.80952380999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.83892617000000003</v>
       </c>
       <c r="F6" s="3">
-        <v>0.71503958000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.74005304999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4994,38 +5002,48 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.58482142999999998</v>
+        <v>0.60287080999999998</v>
       </c>
       <c r="C7">
-        <v>0.68211920999999998</v>
+        <v>0.69400631000000002</v>
       </c>
       <c r="E7" s="3">
-        <v>0.58482142999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.60287080999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>0.68211920999999998</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.69400631000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>1</v>
       </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.56828193999999999</v>
+        <v>0.56053812000000003</v>
       </c>
       <c r="C10">
-        <v>0.88294313999999996</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.56828193999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.88294313999999996</v>
+        <v>0.88448844999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56053812000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88448844999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5033,16 +5051,18 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.59911893999999999</v>
+        <v>0.62780269</v>
       </c>
       <c r="C11">
-        <v>0.84280935999999995</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.59911893999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.84280935999999995</v>
+        <v>0.82838283999999995</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62780269</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82838283999999995</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5050,16 +5070,18 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.57709250999999995</v>
+        <v>0.57399102999999996</v>
       </c>
       <c r="C12">
-        <v>0.82608696000000004</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.57709250999999995</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.82608696000000004</v>
+        <v>0.79207921000000003</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57399102999999996</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79207921000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5067,16 +5089,18 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.52422906999999996</v>
+        <v>0.56053812000000003</v>
       </c>
       <c r="C13">
-        <v>0.90635452000000005</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.52422906999999996</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.90635452000000005</v>
+        <v>0.92079208000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56053812000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92079208000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5084,38 +5108,48 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.57709250999999995</v>
+        <v>0.56502242000000003</v>
       </c>
       <c r="C14">
-        <v>0.68896321000000005</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.57709250999999995</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.68896321000000005</v>
-      </c>
+        <v>0.72607261000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56502242000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72607261000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>2</v>
       </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.65984655000000003</v>
+        <v>0.65274151000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>0.79878970999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.65984655000000003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.79878970999999999</v>
+        <v>0.80119580999999995</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65274151000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80119580999999995</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,16 +5157,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>0.66341463000000001</v>
+        <v>0.67469880000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>0.78504673000000003</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.66341463000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.78504673000000003</v>
+        <v>0.78806907000000004</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67469880000000004</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78806907000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5140,16 +5176,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.63902439</v>
+        <v>0.61835748999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>0.7694704</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.63902439</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.7694704</v>
+        <v>0.75235110000000005</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61835748999999995</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75235110000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5157,16 +5195,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>0.63636364000000001</v>
+        <v>0.67204301</v>
       </c>
       <c r="C20" s="1">
-        <v>0.79941002999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.63636364000000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.79941002999999999</v>
+        <v>0.82058823999999997</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67204301</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82058823999999997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5174,16 +5214,18 @@
         <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>0.58093125999999995</v>
+        <v>0.58333332999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>0.68552413000000001</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.58093125999999995</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.68552413000000001</v>
+        <v>0.70967742</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58333332999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70967742</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5199,14 +5241,14 @@
         <v>10</v>
       </c>
       <c r="B53">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C53">
         <v>0.88</v>
       </c>
       <c r="D53" s="2">
         <f>(B53*B$60+C53*C$60)/D$60</f>
-        <v>0.7462167300380228</v>
+        <v>0.74433460076045621</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,14 +5256,14 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="C54">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" ref="D54:D56" si="0">(B54*B$60+C54*C$60)/D$60</f>
-        <v>0.73642585551330797</v>
+        <f t="shared" ref="D54:D56" si="1">(B54*B$60+C54*C$60)/D$60</f>
+        <v>0.74520912547528517</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5229,14 +5271,14 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C55">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>0.72211026615969576</v>
+        <f t="shared" si="1"/>
+        <v>0.69673003802281375</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5244,14 +5286,14 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>0.52</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C56">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>0.74169201520912553</v>
+        <f t="shared" si="1"/>
+        <v>0.76737642585551324</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5259,14 +5301,14 @@
         <v>7</v>
       </c>
       <c r="B57">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C57">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="D57" s="2">
         <f>(B57*B$60+C57*C$60)/D$60</f>
-        <v>0.64252851711026615</v>
+        <v>0.66216730038022809</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5274,10 +5316,10 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C60">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D60">
         <f>SUM(B60:C60)</f>

--- a/Project3/test/temp.xlsx
+++ b/Project3/test/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.barreiro\Documents\GitHub\Projects_STK4155\Project3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDEDC6-31DF-4110-8279-790D2ED7D297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1EE2A-AD57-4DE9-B300-A526289CE19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FB78CF5-C2F1-41D8-97C6-60501CBD8445}" type="CELLRANGE">
+                    <a:fld id="{DFB23144-C6FB-47A2-AF74-778E35593882}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -283,7 +283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C6D791D-BAB7-4AE2-AEF1-F8B69B4ED96B}" type="CELLRANGE">
+                    <a:fld id="{BA1527F5-8206-4019-A99E-ADEB0DEDD6F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -317,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64E175E5-1D9D-4AEE-A352-3F6E15A9F18F}" type="CELLRANGE">
+                    <a:fld id="{42420CAE-7051-4577-B949-64DB6F63D8F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -351,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A327FC7F-6CBF-4791-AD97-9156B30CE350}" type="CELLRANGE">
+                    <a:fld id="{E2823509-CB90-4CE1-A52B-329FC9156C7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -385,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{500C869F-19AC-44D3-8520-8A9A5E545055}" type="CELLRANGE">
+                    <a:fld id="{1EFDDA07-37BF-4FA6-A058-4D154EC18C1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -500,19 +500,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.78676471000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72916667000000002</c:v>
+                  <c:v>0.76510067000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67015707000000002</c:v>
+                  <c:v>0.65868263000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83892617000000003</c:v>
+                  <c:v>0.77519380000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60287080999999998</c:v>
+                  <c:v>0.56585366000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,19 +524,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.781</c:v>
+                    <c:v>0.787</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.729</c:v>
+                    <c:v>0.765</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.670</c:v>
+                    <c:v>0.659</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.839</c:v>
+                    <c:v>0.775</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.603</c:v>
+                    <c:v>0.566</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -578,7 +578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A92C4055-D12F-47E2-A227-9F8304690ED3}" type="CELLRANGE">
+                    <a:fld id="{9B12705C-FAC6-45CF-A3B7-9557BD4FBC65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4D8FB58-7F04-4945-B6DE-E2525B4D38FE}" type="CELLRANGE">
+                    <a:fld id="{FB2D8AD7-FAB9-43CC-8416-804D84D5486C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B9244F7-C348-432E-8766-4818F76F54C1}" type="CELLRANGE">
+                    <a:fld id="{26E7A786-F6D8-436C-AE6E-7E678F151BF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A4BB54F-0892-4626-871C-56EFE42690A5}" type="CELLRANGE">
+                    <a:fld id="{55A7EF1C-9BA6-4E65-B207-88E7F95B7196}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE12CF55-2401-4016-BEA7-C74779B6167D}" type="CELLRANGE">
+                    <a:fld id="{9EE40948-6A27-4D1E-BBD2-728C2F55A7AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -829,19 +829,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.73224043999999999</c:v>
+                  <c:v>0.75722542999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75149701000000002</c:v>
+                  <c:v>0.76876876999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71641790999999999</c:v>
+                  <c:v>0.74285714000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74005304999999999</c:v>
+                  <c:v>0.74220962999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69400631000000002</c:v>
+                  <c:v>0.72924188000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,19 +853,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.732</c:v>
+                    <c:v>0.757</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.751</c:v>
+                    <c:v>0.769</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.716</c:v>
+                    <c:v>0.743</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.740</c:v>
+                    <c:v>0.742</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.694</c:v>
+                    <c:v>0.729</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1282,7 +1282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F744CC76-44E7-4D49-8E2B-E112469CC5CD}" type="CELLRANGE">
+                    <a:fld id="{4DEE9EC5-607D-4AC1-9AA9-E21349FE68BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1316,7 +1316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1198C31C-4A43-4D1E-BA5E-F0E6C59CF0F8}" type="CELLRANGE">
+                    <a:fld id="{0943BD09-A35B-4E89-AADF-5524DE2A1C00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2610109F-03BB-4A06-B9A7-6AE1E5CE6FAE}" type="CELLRANGE">
+                    <a:fld id="{ED568671-57F4-4700-9318-9C79EF97E952}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1384,7 +1384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D6A1D5C-1AF7-4087-B335-FE3685F8C2F9}" type="CELLRANGE">
+                    <a:fld id="{F6A5BC9A-AE7B-41A0-AACE-3F07576875B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E555906E-7ADC-4E4E-BF32-61386002C1E5}" type="CELLRANGE">
+                    <a:fld id="{E41011AF-0A83-4751-9F44-9833D5B5B939}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1533,19 +1533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.56053812000000003</c:v>
+                  <c:v>0.56020941999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62780269</c:v>
+                  <c:v>0.59685864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57399102999999996</c:v>
+                  <c:v>0.57591623000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56053812000000003</c:v>
+                  <c:v>0.52356020999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56502242000000003</c:v>
+                  <c:v>0.60732984000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,19 +1557,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.561</c:v>
+                    <c:v>0.560</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.628</c:v>
+                    <c:v>0.597</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.574</c:v>
+                    <c:v>0.576</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.561</c:v>
+                    <c:v>0.524</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.565</c:v>
+                    <c:v>0.607</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1611,7 +1611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86B62651-AD43-4226-90DB-86A777C5D2D6}" type="CELLRANGE">
+                    <a:fld id="{92DE61F1-1D9E-4CCF-8863-84EF844EA6DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1645,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D2CD3EE-47FB-44CA-900E-E627C5D12775}" type="CELLRANGE">
+                    <a:fld id="{860E8488-FB15-49CD-B6AB-BA501EB76A51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1679,7 +1679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F19C01C1-CA28-48D8-BEFF-EA18C509627E}" type="CELLRANGE">
+                    <a:fld id="{D27F2B74-6E74-41AF-86B1-8A13D8F45F09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1713,7 +1713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{953D0AB9-8D2A-4B24-A63A-64D054A669AF}" type="CELLRANGE">
+                    <a:fld id="{21FFE1DC-8B60-4C50-968C-8AC5A45158BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1747,7 +1747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8219172F-A209-4592-BB29-7C6E8725A063}" type="CELLRANGE">
+                    <a:fld id="{4320221C-8F4E-4D48-8A62-F3F01F7C1B2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1862,19 +1862,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.88448844999999998</c:v>
+                  <c:v>0.90034364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82838283999999995</c:v>
+                  <c:v>0.87972508999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79207921000000003</c:v>
+                  <c:v>0.80412371000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92079208000000001</c:v>
+                  <c:v>0.90034364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72607261000000001</c:v>
+                  <c:v>0.69415808000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,19 +1886,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.884</c:v>
+                    <c:v>0.900</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.828</c:v>
+                    <c:v>0.880</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.792</c:v>
+                    <c:v>0.804</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.921</c:v>
+                    <c:v>0.900</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.726</c:v>
+                    <c:v>0.694</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2395,19 +2395,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65274151000000002</c:v>
+                  <c:v>0.65443425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67469880000000004</c:v>
+                  <c:v>0.67058823999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61835748999999995</c:v>
+                  <c:v>0.61452514000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67204301</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333332999999998</c:v>
+                  <c:v>0.58585858999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,19 +2530,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.80119580999999995</c:v>
+                  <c:v>0.82260597000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78806907000000004</c:v>
+                  <c:v>0.82051282000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75235110000000005</c:v>
+                  <c:v>0.77227723000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82058823999999997</c:v>
+                  <c:v>0.81366459999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70967742</c:v>
+                  <c:v>0.71126761000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A17" sqref="A17:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4926,18 +4926,18 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.78125</v>
+        <v>0.78676471000000003</v>
       </c>
       <c r="C3">
-        <v>0.73224043999999999</v>
+        <v>0.75722542999999998</v>
       </c>
       <c r="E3" s="3">
         <f>B3</f>
-        <v>0.78125</v>
+        <v>0.78676471000000003</v>
       </c>
       <c r="F3" s="3">
         <f>C3</f>
-        <v>0.73224043999999999</v>
+        <v>0.75722542999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,18 +4945,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.72916667000000002</v>
+        <v>0.76510067000000004</v>
       </c>
       <c r="C4">
-        <v>0.75149701000000002</v>
+        <v>0.76876876999999999</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:F21" si="0">B4</f>
-        <v>0.72916667000000002</v>
+        <v>0.76510067000000004</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>0.75149701000000002</v>
+        <v>0.76876876999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4964,18 +4964,18 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.67015707000000002</v>
+        <v>0.65868263000000005</v>
       </c>
       <c r="C5">
-        <v>0.71641790999999999</v>
+        <v>0.74285714000000003</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>0.67015707000000002</v>
+        <v>0.65868263000000005</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.71641790999999999</v>
+        <v>0.74285714000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,18 +4983,18 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.83892617000000003</v>
+        <v>0.77519380000000004</v>
       </c>
       <c r="C6">
-        <v>0.74005304999999999</v>
+        <v>0.74220962999999995</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>0.83892617000000003</v>
+        <v>0.77519380000000004</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.74005304999999999</v>
+        <v>0.74220962999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,18 +5002,18 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.60287080999999998</v>
+        <v>0.56585366000000004</v>
       </c>
       <c r="C7">
-        <v>0.69400631000000002</v>
+        <v>0.72924188000000001</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>0.60287080999999998</v>
+        <v>0.56585366000000004</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.69400631000000002</v>
+        <v>0.72924188000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5032,18 +5032,18 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.56053812000000003</v>
+        <v>0.56020941999999996</v>
       </c>
       <c r="C10">
-        <v>0.88448844999999998</v>
+        <v>0.90034364</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0.56053812000000003</v>
+        <v>0.56020941999999996</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.88448844999999998</v>
+        <v>0.90034364</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5051,18 +5051,18 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.62780269</v>
+        <v>0.59685864</v>
       </c>
       <c r="C11">
-        <v>0.82838283999999995</v>
+        <v>0.87972508999999999</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>0.62780269</v>
+        <v>0.59685864</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.82838283999999995</v>
+        <v>0.87972508999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5070,18 +5070,18 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.57399102999999996</v>
+        <v>0.57591623000000003</v>
       </c>
       <c r="C12">
-        <v>0.79207921000000003</v>
+        <v>0.80412371000000005</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>0.57399102999999996</v>
+        <v>0.57591623000000003</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.79207921000000003</v>
+        <v>0.80412371000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5089,18 +5089,18 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.56053812000000003</v>
+        <v>0.52356020999999997</v>
       </c>
       <c r="C13">
-        <v>0.92079208000000001</v>
+        <v>0.90034364</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>0.56053812000000003</v>
+        <v>0.52356020999999997</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>0.92079208000000001</v>
+        <v>0.90034364</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5108,18 +5108,18 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.56502242000000003</v>
+        <v>0.60732984000000001</v>
       </c>
       <c r="C14">
-        <v>0.72607261000000001</v>
+        <v>0.69415808000000001</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>0.56502242000000003</v>
+        <v>0.60732984000000001</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0.72607261000000001</v>
+        <v>0.69415808000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5138,18 +5138,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.65274151000000002</v>
+        <v>0.65443425</v>
       </c>
       <c r="C17" s="1">
-        <v>0.80119580999999995</v>
+        <v>0.82260597000000002</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>0.65274151000000002</v>
+        <v>0.65443425</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>0.80119580999999995</v>
+        <v>0.82260597000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5157,18 +5157,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>0.67469880000000004</v>
+        <v>0.67058823999999995</v>
       </c>
       <c r="C18" s="1">
-        <v>0.78806907000000004</v>
+        <v>0.82051282000000003</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>0.67469880000000004</v>
+        <v>0.67058823999999995</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>0.78806907000000004</v>
+        <v>0.82051282000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5176,18 +5176,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.61835748999999995</v>
+        <v>0.61452514000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>0.75235110000000005</v>
+        <v>0.77227723000000004</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>0.61835748999999995</v>
+        <v>0.61452514000000003</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0.75235110000000005</v>
+        <v>0.77227723000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5195,18 +5195,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>0.67204301</v>
+        <v>0.625</v>
       </c>
       <c r="C20" s="1">
-        <v>0.82058823999999997</v>
+        <v>0.81366459999999996</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>0.67204301</v>
+        <v>0.625</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>0.82058823999999997</v>
+        <v>0.81366459999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5214,18 +5214,18 @@
         <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>0.58333332999999998</v>
+        <v>0.58585858999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>0.70967742</v>
+        <v>0.71126761000000005</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>0.58333332999999998</v>
+        <v>0.58585858999999996</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0.70967742</v>
+        <v>0.71126761000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5243,12 +5243,12 @@
       <c r="B53">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C53">
-        <v>0.88</v>
+      <c r="C53" s="2">
+        <v>0.9</v>
       </c>
       <c r="D53" s="2">
         <f>(B53*B$60+C53*C$60)/D$60</f>
-        <v>0.74433460076045621</v>
+        <v>0.76526970954356854</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,14 +5256,14 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C54">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ref="D54:D56" si="1">(B54*B$60+C54*C$60)/D$60</f>
-        <v>0.74520912547528517</v>
+        <v>0.76904564315352686</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5271,14 +5271,14 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C55">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.8</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>0.69673003802281375</v>
+        <v>0.71282157676348545</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5286,14 +5286,14 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C56">
-        <v>0.92</v>
+        <v>0.52</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.9</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>0.76737642585551324</v>
+        <v>0.74941908713692951</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5301,14 +5301,14 @@
         <v>7</v>
       </c>
       <c r="B57">
-        <v>0.56999999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="C57">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="D57" s="2">
         <f>(B57*B$60+C57*C$60)/D$60</f>
-        <v>0.66216730038022809</v>
+        <v>0.65829875518672187</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5316,14 +5316,14 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C60">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D60">
         <f>SUM(B60:C60)</f>
-        <v>526</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Project3/test/temp.xlsx
+++ b/Project3/test/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.barreiro\Documents\GitHub\Projects_STK4155\Project3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1EE2A-AD57-4DE9-B300-A526289CE19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EEE7F-FB87-4A70-AF0A-E45CACDC50D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFB23144-C6FB-47A2-AF74-778E35593882}" type="CELLRANGE">
+                    <a:fld id="{54391744-2280-4932-A305-E15F0A2AB06E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -283,7 +283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA1527F5-8206-4019-A99E-ADEB0DEDD6F7}" type="CELLRANGE">
+                    <a:fld id="{40CF4AF9-4A02-4EA1-B90F-BE9808F6B476}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -317,7 +317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42420CAE-7051-4577-B949-64DB6F63D8F3}" type="CELLRANGE">
+                    <a:fld id="{C333D4DE-1F9D-49E3-9BC0-5EAE4DB9130C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -351,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2823509-CB90-4CE1-A52B-329FC9156C7F}" type="CELLRANGE">
+                    <a:fld id="{84D63A6E-961E-4858-BF3D-1233771A4780}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -385,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EFDDA07-37BF-4FA6-A058-4D154EC18C1D}" type="CELLRANGE">
+                    <a:fld id="{950CD271-E9DD-40B8-B4F4-36DAD07792B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -500,19 +500,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78676471000000003</c:v>
+                  <c:v>0.7890625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.76510067000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65868263000000005</c:v>
+                  <c:v>0.82882882999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.77519380000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56585366000000004</c:v>
+                  <c:v>0.57920791999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,19 +524,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.787</c:v>
+                    <c:v>0.789</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.765</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.659</c:v>
+                    <c:v>0.829</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.775</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.566</c:v>
+                    <c:v>0.579</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -578,7 +578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B12705C-FAC6-45CF-A3B7-9557BD4FBC65}" type="CELLRANGE">
+                    <a:fld id="{41E408FF-6F40-44E6-963E-608C4EFFFD1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB2D8AD7-FAB9-43CC-8416-804D84D5486C}" type="CELLRANGE">
+                    <a:fld id="{DB8C0746-A9A2-48EB-A982-F2B20B8CA759}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26E7A786-F6D8-436C-AE6E-7E678F151BF7}" type="CELLRANGE">
+                    <a:fld id="{FC9D5B01-8FFE-4E5D-B2EC-03DC185AA26B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55A7EF1C-9BA6-4E65-B207-88E7F95B7196}" type="CELLRANGE">
+                    <a:fld id="{1E70A08D-C772-4DA0-B9EB-96A0BDECBA23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EE40948-6A27-4D1E-BBD2-728C2F55A7AE}" type="CELLRANGE">
+                    <a:fld id="{C0AA83CD-DF1B-40C1-8325-C056B9646A45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -829,19 +829,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75722542999999998</c:v>
+                  <c:v>0.74576271000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.76876876999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74285714000000003</c:v>
+                  <c:v>0.73315364000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.74220962999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72924188000000001</c:v>
+                  <c:v>0.73571428999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,19 +853,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.757</c:v>
+                    <c:v>0.746</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.769</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.743</c:v>
+                    <c:v>0.733</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.742</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.729</c:v>
+                    <c:v>0.736</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1282,7 +1282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DEE9EC5-607D-4AC1-9AA9-E21349FE68BE}" type="CELLRANGE">
+                    <a:fld id="{96EE957E-BFC4-4E24-88D6-AA54E5FAA849}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1316,7 +1316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0943BD09-A35B-4E89-AADF-5524DE2A1C00}" type="CELLRANGE">
+                    <a:fld id="{8DD960FA-B5F7-4DDB-B478-5153F2EDE62A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED568671-57F4-4700-9318-9C79EF97E952}" type="CELLRANGE">
+                    <a:fld id="{74C62D9E-B473-4F44-84BD-B9A6E768898C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1384,7 +1384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6A5BC9A-AE7B-41A0-AACE-3F07576875B5}" type="CELLRANGE">
+                    <a:fld id="{E77DB18E-1586-4CB8-92E8-935B250182B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E41011AF-0A83-4751-9F44-9833D5B5B939}" type="CELLRANGE">
+                    <a:fld id="{9084B6B1-8A47-4D72-A007-23438F834EFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1533,19 +1533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.56020941999999996</c:v>
+                  <c:v>0.52879580999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59685864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57591623000000003</c:v>
+                  <c:v>0.48167538999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.52356020999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60732984000000001</c:v>
+                  <c:v>0.61256544999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,19 +1557,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.560</c:v>
+                    <c:v>0.529</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.597</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.576</c:v>
+                    <c:v>0.482</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.524</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.607</c:v>
+                    <c:v>0.613</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1611,7 +1611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92DE61F1-1D9E-4CCF-8863-84EF844EA6DC}" type="CELLRANGE">
+                    <a:fld id="{F88B2944-BF22-4050-A9FC-2EC7205679FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1645,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{860E8488-FB15-49CD-B6AB-BA501EB76A51}" type="CELLRANGE">
+                    <a:fld id="{AA41251F-3601-4A49-830F-E2CBBEC50F75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1679,7 +1679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D27F2B74-6E74-41AF-86B1-8A13D8F45F09}" type="CELLRANGE">
+                    <a:fld id="{20A54148-E661-4C38-89F7-77A809C398FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1713,7 +1713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21FFE1DC-8B60-4C50-968C-8AC5A45158BC}" type="CELLRANGE">
+                    <a:fld id="{E1D91B49-B62D-4AF4-A89F-6123835DBEB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1747,7 +1747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4320221C-8F4E-4D48-8A62-F3F01F7C1B2A}" type="CELLRANGE">
+                    <a:fld id="{38736D8D-8D31-4497-A9F8-191821F8519C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1862,19 +1862,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.90034364</c:v>
+                  <c:v>0.90721649000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.87972508999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80412371000000005</c:v>
+                  <c:v>0.93470790000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.90034364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69415808000000001</c:v>
+                  <c:v>0.70790377999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,19 +1886,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.900</c:v>
+                    <c:v>0.907</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.880</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.804</c:v>
+                    <c:v>0.935</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.900</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.694</c:v>
+                    <c:v>0.708</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2395,19 +2395,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65443425</c:v>
+                  <c:v>0.63322884000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.67058823999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61452514000000003</c:v>
+                  <c:v>0.60927151999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58585858999999996</c:v>
+                  <c:v>0.59541984999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,19 +2530,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82260597000000002</c:v>
+                  <c:v>0.81860465000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.82051282000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77227723000000004</c:v>
+                  <c:v>0.82175226999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.81366459999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71126761000000005</c:v>
+                  <c:v>0.72154116000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,22 +4898,22 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C21"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -4921,26 +4921,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.78676471000000003</v>
+        <v>0.7890625</v>
       </c>
       <c r="C3">
-        <v>0.75722542999999998</v>
+        <v>0.74576271000000005</v>
       </c>
       <c r="E3" s="3">
         <f>B3</f>
-        <v>0.78676471000000003</v>
+        <v>0.7890625</v>
       </c>
       <c r="F3" s="3">
         <f>C3</f>
-        <v>0.75722542999999998</v>
+        <v>0.74576271000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4959,26 +4959,26 @@
         <v>0.76876876999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.65868263000000005</v>
+        <v>0.82882882999999996</v>
       </c>
       <c r="C5">
-        <v>0.74285714000000003</v>
+        <v>0.73315364000000005</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>0.65868263000000005</v>
+        <v>0.82882882999999996</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.74285714000000003</v>
+        <v>0.73315364000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4997,56 +4997,56 @@
         <v>0.74220962999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.56585366000000004</v>
+        <v>0.57920791999999999</v>
       </c>
       <c r="C7">
-        <v>0.72924188000000001</v>
+        <v>0.73571428999999999</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>0.56585366000000004</v>
+        <v>0.57920791999999999</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.72924188000000001</v>
+        <v>0.73571428999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.56020941999999996</v>
+        <v>0.52879580999999998</v>
       </c>
       <c r="C10">
-        <v>0.90034364</v>
+        <v>0.90721649000000004</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0.56020941999999996</v>
+        <v>0.52879580999999998</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.90034364</v>
+        <v>0.90721649000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5065,26 +5065,26 @@
         <v>0.87972508999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.57591623000000003</v>
+        <v>0.48167538999999998</v>
       </c>
       <c r="C12">
-        <v>0.80412371000000005</v>
+        <v>0.93470790000000004</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>0.57591623000000003</v>
+        <v>0.48167538999999998</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.80412371000000005</v>
+        <v>0.93470790000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5103,56 +5103,56 @@
         <v>0.90034364</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.60732984000000001</v>
+        <v>0.61256544999999996</v>
       </c>
       <c r="C14">
-        <v>0.69415808000000001</v>
+        <v>0.70790377999999998</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>0.60732984000000001</v>
+        <v>0.61256544999999996</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>0.69415808000000001</v>
+        <v>0.70790377999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.65443425</v>
+        <v>0.63322884000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>0.82260597000000002</v>
+        <v>0.81860465000000004</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>0.65443425</v>
+        <v>0.63322884000000002</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>0.82260597000000002</v>
+        <v>0.81860465000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -5171,26 +5171,26 @@
         <v>0.82051282000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>0.61452514000000003</v>
+        <v>0.60927151999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>0.77227723000000004</v>
+        <v>0.82175226999999995</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>0.61452514000000003</v>
+        <v>0.60927151999999996</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>0.77227723000000004</v>
+        <v>0.82175226999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -5209,26 +5209,26 @@
         <v>0.81366459999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>0.58585858999999996</v>
+        <v>0.59541984999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>0.71126761000000005</v>
+        <v>0.72154116000000001</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>0.58585858999999996</v>
+        <v>0.59541984999999997</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0.71126761000000005</v>
+        <v>0.72154116000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>8</v>
       </c>
@@ -5236,22 +5236,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="C53" s="2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D53" s="2">
         <f>(B53*B$60+C53*C$60)/D$60</f>
-        <v>0.76526970954356854</v>
+        <v>0.75941908713692952</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -5266,22 +5266,22 @@
         <v>0.76904564315352686</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55">
-        <v>0.57999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="C55" s="2">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>0.71282157676348545</v>
+        <v>0.75168049792531122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0.74941908713692951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -5304,14 +5304,14 @@
         <v>0.61</v>
       </c>
       <c r="C57">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="D57" s="2">
         <f>(B57*B$60+C57*C$60)/D$60</f>
-        <v>0.65829875518672187</v>
+        <v>0.67037344398340248</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -5341,7 +5341,7 @@
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project3/test/temp.xlsx
+++ b/Project3/test/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.barreiro\Documents\GitHub\Projects_STK4155\Project3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EEE7F-FB87-4A70-AF0A-E45CACDC50D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B026230-D5A3-4B4A-AA64-116ECEA7D3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
+    <workbookView xWindow="26295" yWindow="1560" windowWidth="14445" windowHeight="10905" xr2:uid="{35CCFA73-E51D-4ABC-B1FD-5A91437CC8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Precision</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>Number of features</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -175,7 +196,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>Precision</a:t>
             </a:r>
           </a:p>
@@ -249,7 +270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54391744-2280-4932-A305-E15F0A2AB06E}" type="CELLRANGE">
+                    <a:fld id="{C739E7C4-7351-45D8-ABF2-BB3B07889B09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -283,7 +304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40CF4AF9-4A02-4EA1-B90F-BE9808F6B476}" type="CELLRANGE">
+                    <a:fld id="{DDFC497E-C1CD-4DD2-81DA-BC4A0B4BC8F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -317,7 +338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C333D4DE-1F9D-49E3-9BC0-5EAE4DB9130C}" type="CELLRANGE">
+                    <a:fld id="{3433F7B9-A540-4120-97C0-29F41C745A7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -351,7 +372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84D63A6E-961E-4858-BF3D-1233771A4780}" type="CELLRANGE">
+                    <a:fld id="{A1705072-1FC0-4492-AE1D-8ACD9282C379}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -385,7 +406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{950CD271-E9DD-40B8-B4F4-36DAD07792B9}" type="CELLRANGE">
+                    <a:fld id="{54CE5725-38D6-4321-888F-B655CF6722EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -426,7 +447,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -578,7 +599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41E408FF-6F40-44E6-963E-608C4EFFFD1C}" type="CELLRANGE">
+                    <a:fld id="{349E09CB-9EF8-48F4-A3C2-8D2C698FFB5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB8C0746-A9A2-48EB-A982-F2B20B8CA759}" type="CELLRANGE">
+                    <a:fld id="{49CCA2CD-9DBC-483D-ABF8-AC965DD184B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC9D5B01-8FFE-4E5D-B2EC-03DC185AA26B}" type="CELLRANGE">
+                    <a:fld id="{BCB7520C-9014-4FF4-B91A-9FED6FDB967F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +701,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E70A08D-C772-4DA0-B9EB-96A0BDECBA23}" type="CELLRANGE">
+                    <a:fld id="{73C2EC5A-0BBF-4813-B566-A950ABDE81DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +735,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0AA83CD-DF1B-40C1-8325-C056B9646A45}" type="CELLRANGE">
+                    <a:fld id="{B94AA5FA-8C34-460B-BC1F-39AE318788FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -755,7 +776,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -915,7 +936,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Classifiers</a:t>
                 </a:r>
               </a:p>
@@ -972,7 +993,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1009,7 +1030,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1022,7 +1043,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -1041,7 +1062,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1073,7 +1094,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1108,6 +1129,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1146,12 +1213,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1195,7 +1257,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1208,7 +1270,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>Recall</a:t>
             </a:r>
           </a:p>
@@ -1227,7 +1289,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1282,7 +1344,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96EE957E-BFC4-4E24-88D6-AA54E5FAA849}" type="CELLRANGE">
+                    <a:fld id="{2ECAD28A-B83B-47A8-A0C0-5D10AA2CE9FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1316,7 +1378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DD960FA-B5F7-4DDB-B478-5153F2EDE62A}" type="CELLRANGE">
+                    <a:fld id="{DE32D336-61AB-4E9C-985D-8B9A013D88CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74C62D9E-B473-4F44-84BD-B9A6E768898C}" type="CELLRANGE">
+                    <a:fld id="{171ABD8E-E50A-469A-8208-CEFF8CBB9C76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1384,7 +1446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E77DB18E-1586-4CB8-92E8-935B250182B3}" type="CELLRANGE">
+                    <a:fld id="{AE4A0282-3433-4B50-ADDB-BD00FC95DE88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9084B6B1-8A47-4D72-A007-23438F834EFB}" type="CELLRANGE">
+                    <a:fld id="{63F2C958-8CE2-431A-BE62-2B6513061F26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1459,7 +1521,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1611,7 +1673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F88B2944-BF22-4050-A9FC-2EC7205679FE}" type="CELLRANGE">
+                    <a:fld id="{8A929171-9161-4C72-A7BF-E02278C49165}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1645,7 +1707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA41251F-3601-4A49-830F-E2CBBEC50F75}" type="CELLRANGE">
+                    <a:fld id="{50FFF7A2-F1BC-4FCF-9AA7-02C2984354B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1679,7 +1741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20A54148-E661-4C38-89F7-77A809C398FB}" type="CELLRANGE">
+                    <a:fld id="{98FF47C0-0123-47BC-A564-8DA3FBEBF527}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1713,7 +1775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1D91B49-B62D-4AF4-A89F-6123835DBEB6}" type="CELLRANGE">
+                    <a:fld id="{BB290956-C718-4B78-A502-CD70451CB8FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1747,7 +1809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38736D8D-8D31-4497-A9F8-191821F8519C}" type="CELLRANGE">
+                    <a:fld id="{00CE15DB-02F5-4837-8924-7B07DA399105}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1788,7 +1850,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1935,7 +1997,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1948,7 +2010,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Classifiers</a:t>
                 </a:r>
               </a:p>
@@ -1967,7 +2029,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2005,7 +2067,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2042,7 +2104,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2055,7 +2117,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -2074,7 +2136,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2106,7 +2168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2141,6 +2203,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2179,12 +2287,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2228,7 +2331,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2241,7 +2344,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>F1-score</a:t>
             </a:r>
           </a:p>
@@ -2260,7 +2363,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2322,7 +2425,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2457,7 +2560,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2580,7 +2683,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2593,7 +2696,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Classifiers</a:t>
                 </a:r>
               </a:p>
@@ -2612,7 +2715,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2650,7 +2753,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2687,7 +2790,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2700,7 +2803,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Values</a:t>
                 </a:r>
               </a:p>
@@ -2719,7 +2822,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2751,7 +2854,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2786,6 +2889,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2824,12 +2973,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4895,10 +5039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3298D772-E91D-4F6C-9187-DB942DE0E9DF}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,15 +5372,36 @@
         <v>0.72154116000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -5251,7 +5416,7 @@
         <v>0.75941908713692952</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -5265,8 +5430,32 @@
         <f t="shared" ref="D54:D56" si="1">(B54*B$60+C54*C$60)/D$60</f>
         <v>0.76904564315352686</v>
       </c>
+      <c r="F54">
+        <v>114</v>
+      </c>
+      <c r="G54">
+        <v>256</v>
+      </c>
+      <c r="H54">
+        <v>77</v>
+      </c>
+      <c r="I54">
+        <v>35</v>
+      </c>
+      <c r="K54">
+        <f>F54/(F54+I54)</f>
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="L54">
+        <f>F54/(F54+H54)</f>
+        <v>0.59685863874345546</v>
+      </c>
+      <c r="M54">
+        <f>2*L54*K54/(L54+K54)</f>
+        <v>0.6705882352941176</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -5280,8 +5469,12 @@
         <f t="shared" si="1"/>
         <v>0.75168049792531122</v>
       </c>
+      <c r="K55">
+        <f>G54/(G54+H54)</f>
+        <v>0.76876876876876876</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -5296,7 +5489,7 @@
         <v>0.74941908713692951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5504,7 @@
         <v>0.67037344398340248</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
